--- a/bin/save_data/editor_tab/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_tab/编辑器_编辑器配置.xlsx
@@ -4,141 +4,168 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="editor_tab" sheetId="2" r:id="rId2"/>
+    <sheet name="editor_tab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>分组</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>子分组</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>页签名称</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>包含表格</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>菜单分组</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>K&lt;N</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A&lt;M</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>__Group__</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>__SubGroup__</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>tabs</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>编辑器配置</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>{master_table="", tab="editor_tab"};{master_table="", tab="editor_menu"}</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>表格配置</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>{master_table="", tab="editor_table"};{master_table="editor_table", tab="editor_field"}</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>模板配置</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>{master_table="", tab="editor_templete"};{master_table="editor_templete", tab="editor_field"}</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>模板配置___</t>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{master_table="", tab="editor_templete"};{master_table="editor_templete", tab="editor_field"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -149,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,20 +198,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -480,31 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -564,7 +561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -575,77 +572,77 @@
         <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1002</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1003</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1004</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/bin/save_data/editor_tab/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_tab/编辑器_编辑器配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1"/>
@@ -137,26 +137,6 @@
   </si>
   <si>
     <t>模板配置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{master_table="", tab="editor_templete"};{master_table="editor_templete", tab="editor_field"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>编辑器</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>编辑器配置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>模板配置___</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6">
@@ -619,26 +599,6 @@
       </c>
       <c r="F6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>1004</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
